--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang8/2.XulyBH/XLBH2108_TarisHN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang8/2.XulyBH/XLBH2108_TarisHN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang8\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang8\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="107">
   <si>
     <t>STT</t>
   </si>
@@ -285,9 +285,6 @@
     <t>LE.3.00.---01.200923</t>
   </si>
   <si>
-    <t>TB không chốt server</t>
-  </si>
-  <si>
     <t>Khách kiểm tra lại SV trên thiết bị</t>
   </si>
   <si>
@@ -301,6 +298,63 @@
   </si>
   <si>
     <t>LE.1.00.---01.180925</t>
+  </si>
+  <si>
+    <t>Lock: 112.213.94.88,31004</t>
+  </si>
+  <si>
+    <t>Nguồn thiết bị chập chờn</t>
+  </si>
+  <si>
+    <t>Xử lý lại nguồn, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>NG,NCFW</t>
+  </si>
+  <si>
+    <t>Nguồn thiết bị chập chờn, thiết bị không chốt GSM</t>
+  </si>
+  <si>
+    <t>Xử lý lại connector nguồn, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>MCU bị oxi hóa</t>
+  </si>
+  <si>
+    <t>Vệ sinh lại MCU</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180710</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,20175</t>
+  </si>
+  <si>
+    <t>112.213.94.88,31001</t>
+  </si>
+  <si>
+    <t>Thiết bị treo</t>
+  </si>
+  <si>
+    <t>Nạp lại FW</t>
+  </si>
+  <si>
+    <t>Lock: 112.213.94.88,30004</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.18,17885</t>
+  </si>
+  <si>
+    <t>Kiểm tra lại dịch vụ server</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.18,16886</t>
   </si>
 </sst>
 </file>
@@ -700,9 +754,24 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -722,21 +791,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1078,43 +1132,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1159,58 +1213,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1235,23 +1289,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1301,7 +1355,7 @@
         <v>77</v>
       </c>
       <c r="T6" s="64"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1352,7 +1406,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1381,7 +1435,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1410,7 +1464,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1439,7 +1493,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1468,7 +1522,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1497,7 +1551,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1528,7 +1582,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1557,7 +1611,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1586,7 +1640,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1615,7 +1669,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2846,13 +2900,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2864,6 +2911,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2874,8 +2928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2907,43 +2961,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -2988,58 +3042,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -3064,23 +3118,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3102,27 +3156,37 @@
         <v>65</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="I6" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="40" t="s">
         <v>61</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3148,28 +3212,38 @@
       <c r="G7" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="60"/>
+      <c r="H7" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="60" t="s">
+        <v>106</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="40" t="s">
         <v>61</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="R7" s="38" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3194,27 +3268,37 @@
         <v>63</v>
       </c>
       <c r="H8" s="13"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="I8" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="1"/>
       <c r="O8" s="40" t="s">
         <v>61</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R8" s="38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3240,11 +3324,11 @@
       </c>
       <c r="H9" s="40"/>
       <c r="I9" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J9" s="40"/>
       <c r="K9" s="40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L9" s="40" t="s">
         <v>82</v>
@@ -3265,7 +3349,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3295,7 +3379,7 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L10" s="40" t="s">
         <v>82</v>
@@ -3316,7 +3400,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3340,18 +3424,28 @@
       <c r="G11" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="38"/>
-      <c r="I11" s="60"/>
+      <c r="H11" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="60" t="s">
+        <v>104</v>
+      </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="40"/>
+      <c r="K11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="40" t="s">
         <v>61</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="4" t="s">
         <v>19</v>
@@ -3361,7 +3455,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3399,7 +3493,7 @@
         <v>82</v>
       </c>
       <c r="M12" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="40" t="s">
@@ -3416,7 +3510,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3443,27 +3537,35 @@
         <v>63</v>
       </c>
       <c r="H13" s="13"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="1"/>
+      <c r="I13" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="N13" s="1"/>
       <c r="O13" s="40" t="s">
         <v>61</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R13" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3488,17 +3590,25 @@
         <v>63</v>
       </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="50"/>
+      <c r="I14" s="50" t="s">
+        <v>99</v>
+      </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N14" s="1"/>
       <c r="O14" s="40" t="s">
         <v>61</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>19</v>
@@ -3508,7 +3618,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3537,7 +3647,7 @@
         <v>81</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>67</v>
@@ -3545,23 +3655,25 @@
       <c r="L15" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="M15" s="40"/>
+      <c r="M15" s="40" t="s">
+        <v>96</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="O15" s="40" t="s">
         <v>61</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R15" s="38" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3586,13 +3698,13 @@
         <v>63</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I16" s="60" t="s">
         <v>74</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>66</v>
@@ -3601,24 +3713,24 @@
         <v>82</v>
       </c>
       <c r="M16" s="40" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="40" t="s">
         <v>61</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="R16" s="38" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3745,7 +3857,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -3777,7 +3889,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -3809,7 +3921,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -4022,7 +4134,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -4118,7 +4230,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -4214,7 +4326,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -4246,7 +4358,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -4278,7 +4390,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4631,7 +4743,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>57</v>
@@ -4857,13 +4969,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4875,6 +4980,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4918,43 +5030,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -4999,58 +5111,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -5075,23 +5187,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5117,7 +5229,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5148,7 +5260,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5177,7 +5289,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5206,7 +5318,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5235,7 +5347,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5264,7 +5376,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5293,7 +5405,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5324,7 +5436,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5353,7 +5465,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5382,7 +5494,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5411,7 +5523,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6642,13 +6754,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6660,6 +6765,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang8/2.XulyBH/XLBH2108_TarisHN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang8/2.XulyBH/XLBH2108_TarisHN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang8\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang8\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="108">
   <si>
     <t>STT</t>
   </si>
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t>Lock: 203.162.69.18,16886</t>
+  </si>
+  <si>
+    <t>Khách kiểm tra lại server</t>
   </si>
 </sst>
 </file>
@@ -1099,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1315,7 +1318,9 @@
       <c r="B6" s="37">
         <v>44432</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44439</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>70</v>
       </c>
@@ -1331,13 +1336,15 @@
         <v>78</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>72</v>
       </c>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
         <v>61</v>
@@ -1346,10 +1353,10 @@
         <v>62</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S6" s="4" t="s">
         <v>77</v>
@@ -1370,7 +1377,9 @@
       <c r="B7" s="37">
         <v>44432</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44439</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>70</v>
       </c>
@@ -1386,15 +1395,19 @@
         <v>71</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>72</v>
       </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
+      <c r="O7" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="P7" s="40" t="s">
         <v>62</v>
       </c>
@@ -1788,7 +1801,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -1852,7 +1865,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -2257,7 +2270,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2289,7 +2302,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -2929,7 +2942,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3144,7 +3157,9 @@
       <c r="B6" s="37">
         <v>44432</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44445</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>44</v>
       </c>
@@ -3201,7 +3216,9 @@
       <c r="B7" s="37">
         <v>44432</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44445</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>44</v>
       </c>
@@ -3256,7 +3273,9 @@
       <c r="B8" s="37">
         <v>44432</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44445</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>44</v>
       </c>
@@ -3311,7 +3330,9 @@
       <c r="B9" s="37">
         <v>44432</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <v>44445</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>44</v>
       </c>
@@ -3333,7 +3354,9 @@
       <c r="L9" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="M9" s="40"/>
+      <c r="M9" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="40" t="s">
         <v>61</v>
@@ -3362,7 +3385,9 @@
       <c r="B10" s="37">
         <v>44432</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="37">
+        <v>44445</v>
+      </c>
       <c r="D10" s="38" t="s">
         <v>44</v>
       </c>
@@ -3384,7 +3409,9 @@
       <c r="L10" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="M10" s="40"/>
+      <c r="M10" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="40" t="s">
         <v>61</v>
@@ -3413,7 +3440,9 @@
       <c r="B11" s="37">
         <v>44432</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="37">
+        <v>44445</v>
+      </c>
       <c r="D11" s="38" t="s">
         <v>44</v>
       </c>
@@ -3468,7 +3497,9 @@
       <c r="B12" s="37">
         <v>44432</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="37">
+        <v>44445</v>
+      </c>
       <c r="D12" s="38" t="s">
         <v>44</v>
       </c>
@@ -3525,7 +3556,9 @@
       <c r="B13" s="37">
         <v>44432</v>
       </c>
-      <c r="C13" s="37"/>
+      <c r="C13" s="37">
+        <v>44445</v>
+      </c>
       <c r="D13" s="38" t="s">
         <v>44</v>
       </c>
@@ -3578,7 +3611,9 @@
       <c r="B14" s="37">
         <v>44432</v>
       </c>
-      <c r="C14" s="37"/>
+      <c r="C14" s="37">
+        <v>44445</v>
+      </c>
       <c r="D14" s="38" t="s">
         <v>44</v>
       </c>
@@ -3631,7 +3666,9 @@
       <c r="B15" s="37">
         <v>44432</v>
       </c>
-      <c r="C15" s="37"/>
+      <c r="C15" s="37">
+        <v>44445</v>
+      </c>
       <c r="D15" s="38" t="s">
         <v>44</v>
       </c>
@@ -3686,7 +3723,9 @@
       <c r="B16" s="37">
         <v>44432</v>
       </c>
-      <c r="C16" s="37"/>
+      <c r="C16" s="37">
+        <v>44445</v>
+      </c>
       <c r="D16" s="38" t="s">
         <v>44</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang8/2.XulyBH/XLBH2108_TarisHN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang8/2.XulyBH/XLBH2108_TarisHN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang8\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang8\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="36" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="108">
   <si>
     <t>STT</t>
   </si>
@@ -560,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -685,9 +685,6 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -712,9 +709,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -757,6 +751,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -769,31 +787,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1102,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1116,7 +1110,7 @@
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="63" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="61" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -1135,46 +1129,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="47"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="57"/>
+      <c r="I2" s="55"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -1199,7 +1193,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="58"/>
+      <c r="I3" s="56"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -1216,100 +1210,100 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="48"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="65" t="s">
+      <c r="A5" s="69"/>
+      <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="65" t="s">
+      <c r="J5" s="64"/>
+      <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="65" t="s">
+      <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="48"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1327,12 +1321,12 @@
       <c r="E6" s="39">
         <v>868345035633155</v>
       </c>
-      <c r="F6" s="55"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="38" t="s">
         <v>63</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="58" t="s">
         <v>78</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -1361,14 +1355,14 @@
       <c r="S6" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="T6" s="64"/>
-      <c r="U6" s="66" t="s">
+      <c r="T6" s="62"/>
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="64"/>
+      <c r="W6" s="62"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1386,7 +1380,7 @@
       <c r="E7" s="39">
         <v>868345035601244</v>
       </c>
-      <c r="F7" s="55"/>
+      <c r="F7" s="53"/>
       <c r="G7" s="38" t="s">
         <v>63</v>
       </c>
@@ -1418,12 +1412,12 @@
         <v>25</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="67"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="64"/>
+      <c r="W7" s="62"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1433,10 +1427,10 @@
       <c r="C8" s="37"/>
       <c r="D8" s="38"/>
       <c r="E8" s="39"/>
-      <c r="F8" s="55"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
-      <c r="I8" s="60"/>
+      <c r="I8" s="58"/>
       <c r="J8" s="40"/>
       <c r="K8" s="1"/>
       <c r="L8" s="40"/>
@@ -1447,12 +1441,12 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="67"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="64"/>
+      <c r="W8" s="62"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1462,10 +1456,10 @@
       <c r="C9" s="37"/>
       <c r="D9" s="38"/>
       <c r="E9" s="39"/>
-      <c r="F9" s="55"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="38"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="50"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="40"/>
       <c r="K9" s="40"/>
       <c r="L9" s="1"/>
@@ -1476,12 +1470,12 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="67"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="64"/>
+      <c r="W9" s="62"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1491,10 +1485,10 @@
       <c r="C10" s="37"/>
       <c r="D10" s="38"/>
       <c r="E10" s="39"/>
-      <c r="F10" s="55"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="38"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="60"/>
+      <c r="I10" s="58"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="40"/>
@@ -1505,12 +1499,12 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="67"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="64"/>
+      <c r="W10" s="62"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1520,10 +1514,10 @@
       <c r="C11" s="37"/>
       <c r="D11" s="38"/>
       <c r="E11" s="39"/>
-      <c r="F11" s="55"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
-      <c r="I11" s="60"/>
+      <c r="I11" s="58"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="40"/>
@@ -1534,12 +1528,12 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="67"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="64"/>
+      <c r="W11" s="62"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -1549,10 +1543,10 @@
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
       <c r="E12" s="39"/>
-      <c r="F12" s="55"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="38"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="60"/>
+      <c r="I12" s="58"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="40"/>
@@ -1563,14 +1557,14 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="66" t="s">
+      <c r="T12" s="62"/>
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="64"/>
+      <c r="W12" s="62"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -1580,10 +1574,10 @@
       <c r="C13" s="37"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
-      <c r="F13" s="55"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="38"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="50"/>
+      <c r="I13" s="49"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1594,12 +1588,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="67"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="64"/>
+      <c r="W13" s="62"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1609,10 +1603,10 @@
       <c r="C14" s="37"/>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
-      <c r="F14" s="55"/>
+      <c r="F14" s="53"/>
       <c r="G14" s="38"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="50"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="40"/>
@@ -1623,12 +1617,12 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="67"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="64"/>
+      <c r="W14" s="62"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -1638,10 +1632,10 @@
       <c r="C15" s="37"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
-      <c r="F15" s="55"/>
+      <c r="F15" s="53"/>
       <c r="G15" s="38"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="50"/>
+      <c r="I15" s="49"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="40"/>
@@ -1653,11 +1647,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="64"/>
+      <c r="W15" s="62"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -1667,10 +1661,10 @@
       <c r="C16" s="37"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="55"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="38"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="60"/>
+      <c r="I16" s="58"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="40"/>
@@ -1682,11 +1676,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="64"/>
+      <c r="W16" s="62"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -1696,10 +1690,10 @@
       <c r="C17" s="37"/>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
-      <c r="F17" s="55"/>
+      <c r="F17" s="53"/>
       <c r="G17" s="38"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="60"/>
+      <c r="I17" s="58"/>
       <c r="J17" s="40"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1711,9 +1705,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="64"/>
+      <c r="U17" s="62"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="64"/>
+      <c r="W17" s="62"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1723,10 +1717,10 @@
       <c r="C18" s="9"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
-      <c r="F18" s="55"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="38"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="60"/>
+      <c r="I18" s="58"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1749,11 +1743,11 @@
       <c r="B19" s="37"/>
       <c r="C19" s="9"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="55"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="60"/>
+      <c r="I19" s="58"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1765,13 +1759,13 @@
       <c r="R19" s="38"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="65" t="s">
+      <c r="U19" s="63" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="49"/>
+      <c r="W19" s="48"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -1784,7 +1778,7 @@
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="60"/>
+      <c r="I20" s="58"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1816,7 +1810,7 @@
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="60"/>
+      <c r="I21" s="58"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1848,7 +1842,7 @@
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="60"/>
+      <c r="I22" s="58"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -1880,7 +1874,7 @@
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="60"/>
+      <c r="I23" s="58"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -1907,7 +1901,7 @@
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="60"/>
+      <c r="I24" s="58"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -1934,7 +1928,7 @@
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="60"/>
+      <c r="I25" s="58"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -1946,13 +1940,13 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="65" t="s">
+      <c r="U25" s="63" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="49"/>
+      <c r="W25" s="48"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -1965,7 +1959,7 @@
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="60"/>
+      <c r="I26" s="58"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -1997,7 +1991,7 @@
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="60"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -2029,7 +2023,7 @@
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="60"/>
+      <c r="I28" s="58"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -2061,7 +2055,7 @@
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="60"/>
+      <c r="I29" s="58"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -2093,7 +2087,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="60"/>
+      <c r="I30" s="58"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2125,7 +2119,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="60"/>
+      <c r="I31" s="58"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2157,7 +2151,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="60"/>
+      <c r="I32" s="58"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2189,7 +2183,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="60"/>
+      <c r="I33" s="58"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2221,7 +2215,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="60"/>
+      <c r="I34" s="58"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2253,7 +2247,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="60"/>
+      <c r="I35" s="58"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2285,7 +2279,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="60"/>
+      <c r="I36" s="58"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2317,7 +2311,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="60"/>
+      <c r="I37" s="58"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2349,7 +2343,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="60"/>
+      <c r="I38" s="58"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2376,7 +2370,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="60"/>
+      <c r="I39" s="58"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2403,7 +2397,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="60"/>
+      <c r="I40" s="58"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2435,7 +2429,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="60"/>
+      <c r="I41" s="58"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2467,7 +2461,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="60"/>
+      <c r="I42" s="58"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2494,7 +2488,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="60"/>
+      <c r="I43" s="58"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2521,7 +2515,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="60"/>
+      <c r="I44" s="58"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2557,7 +2551,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="60"/>
+      <c r="I45" s="58"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2596,7 +2590,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="60"/>
+      <c r="I46" s="58"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2635,7 +2629,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="60"/>
+      <c r="I47" s="58"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2674,7 +2668,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="60"/>
+      <c r="I48" s="58"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2716,7 +2710,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="60"/>
+      <c r="I49" s="58"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2728,9 +2722,9 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2739,12 +2733,12 @@
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
-      <c r="D50" s="45"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="61"/>
+      <c r="I50" s="59"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -2753,12 +2747,12 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="45"/>
+      <c r="R50" s="44"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2772,7 +2766,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="60"/>
+      <c r="I51" s="58"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2784,9 +2778,9 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2800,7 +2794,7 @@
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="62"/>
+      <c r="I52" s="60"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -2812,9 +2806,9 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2828,7 +2822,7 @@
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="62"/>
+      <c r="I53" s="60"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -2840,9 +2834,9 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2856,7 +2850,7 @@
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="62"/>
+      <c r="I54" s="60"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -2868,9 +2862,9 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2884,7 +2878,7 @@
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="62"/>
+      <c r="I55" s="60"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -2896,9 +2890,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="46"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2913,6 +2907,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2924,13 +2925,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2941,8 +2935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView showZeros="0" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2955,7 +2949,7 @@
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="63" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="61" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -2974,46 +2968,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="47"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="57"/>
+      <c r="I2" s="55"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -3038,7 +3032,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="58"/>
+      <c r="I3" s="56"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -3055,100 +3049,100 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="48"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="53" t="s">
+      <c r="A5" s="69"/>
+      <c r="B5" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="53" t="s">
+      <c r="J5" s="64"/>
+      <c r="K5" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="53" t="s">
+      <c r="L5" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="48"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -3166,18 +3160,18 @@
       <c r="E6" s="39">
         <v>867717030466743</v>
       </c>
-      <c r="F6" s="55"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="38" t="s">
         <v>65</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="58" t="s">
         <v>88</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K6" s="52" t="s">
+      <c r="K6" s="50" t="s">
         <v>66</v>
       </c>
       <c r="L6" s="40" t="s">
@@ -3200,14 +3194,14 @@
         <v>92</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="66" t="s">
+      <c r="T6" s="52"/>
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="54"/>
+      <c r="W6" s="52"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -3225,14 +3219,14 @@
       <c r="E7" s="39">
         <v>868183033796678</v>
       </c>
-      <c r="F7" s="55"/>
+      <c r="F7" s="53"/>
       <c r="G7" s="38" t="s">
         <v>63</v>
       </c>
       <c r="H7" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="I7" s="60" t="s">
+      <c r="I7" s="58" t="s">
         <v>106</v>
       </c>
       <c r="J7" s="1"/>
@@ -3259,12 +3253,12 @@
         <v>24</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="67"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="54"/>
+      <c r="W7" s="52"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -3282,12 +3276,12 @@
       <c r="E8" s="39">
         <v>868183033812335</v>
       </c>
-      <c r="F8" s="55"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="38" t="s">
         <v>63</v>
       </c>
       <c r="H8" s="13"/>
-      <c r="I8" s="60" t="s">
+      <c r="I8" s="58" t="s">
         <v>103</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -3316,12 +3310,12 @@
         <v>24</v>
       </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="67"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="54"/>
+      <c r="W8" s="52"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -3339,12 +3333,12 @@
       <c r="E9" s="39">
         <v>868183035901813</v>
       </c>
-      <c r="F9" s="55"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="38" t="s">
         <v>63</v>
       </c>
       <c r="H9" s="40"/>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="49" t="s">
         <v>86</v>
       </c>
       <c r="J9" s="40"/>
@@ -3371,12 +3365,12 @@
         <v>25</v>
       </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="67"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="54"/>
+      <c r="W9" s="52"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -3394,12 +3388,12 @@
       <c r="E10" s="39">
         <v>867857039922260</v>
       </c>
-      <c r="F10" s="55"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="38" t="s">
         <v>63</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="60" t="s">
+      <c r="I10" s="58" t="s">
         <v>71</v>
       </c>
       <c r="J10" s="1"/>
@@ -3426,12 +3420,12 @@
         <v>24</v>
       </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="67"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="54"/>
+      <c r="W10" s="52"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -3449,14 +3443,14 @@
       <c r="E11" s="39">
         <v>868183034607437</v>
       </c>
-      <c r="F11" s="55"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="38" t="s">
         <v>63</v>
       </c>
       <c r="H11" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="I11" s="60" t="s">
+      <c r="I11" s="58" t="s">
         <v>104</v>
       </c>
       <c r="J11" s="1"/>
@@ -3483,12 +3477,12 @@
         <v>24</v>
       </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="67"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="54"/>
+      <c r="W11" s="52"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -3506,12 +3500,12 @@
       <c r="E12" s="39">
         <v>868183034747118</v>
       </c>
-      <c r="F12" s="55"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="38" t="s">
         <v>65</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="60" t="s">
+      <c r="I12" s="58" t="s">
         <v>75</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -3540,14 +3534,14 @@
         <v>76</v>
       </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="66" t="s">
+      <c r="T12" s="52"/>
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="54"/>
+      <c r="W12" s="52"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -3565,12 +3559,12 @@
       <c r="E13" s="39">
         <v>868183035853220</v>
       </c>
-      <c r="F13" s="55"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="38" t="s">
         <v>63</v>
       </c>
       <c r="H13" s="13"/>
-      <c r="I13" s="50" t="s">
+      <c r="I13" s="49" t="s">
         <v>100</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -3597,12 +3591,12 @@
         <v>23</v>
       </c>
       <c r="S13" s="4"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="67"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="54"/>
+      <c r="W13" s="52"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -3620,12 +3614,12 @@
       <c r="E14" s="39">
         <v>868183033852356</v>
       </c>
-      <c r="F14" s="55"/>
+      <c r="F14" s="53"/>
       <c r="G14" s="38" t="s">
         <v>63</v>
       </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="50" t="s">
+      <c r="I14" s="49" t="s">
         <v>99</v>
       </c>
       <c r="J14" s="1"/>
@@ -3652,12 +3646,12 @@
         <v>24</v>
       </c>
       <c r="S14" s="4"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="67"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="54"/>
+      <c r="W14" s="52"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -3675,12 +3669,12 @@
       <c r="E15" s="39">
         <v>868183037783318</v>
       </c>
-      <c r="F15" s="55"/>
+      <c r="F15" s="53"/>
       <c r="G15" s="38" t="s">
         <v>63</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="50" t="s">
+      <c r="I15" s="49" t="s">
         <v>81</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -3710,11 +3704,11 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="54"/>
+      <c r="W15" s="52"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -3732,14 +3726,14 @@
       <c r="E16" s="39">
         <v>860157040209527</v>
       </c>
-      <c r="F16" s="55"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="38" t="s">
         <v>63</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="60" t="s">
+      <c r="I16" s="58" t="s">
         <v>74</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -3769,11 +3763,11 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="54"/>
+      <c r="W16" s="52"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -3786,7 +3780,7 @@
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="60"/>
+      <c r="I17" s="58"/>
       <c r="J17" s="40"/>
       <c r="K17" s="1"/>
       <c r="L17" s="40"/>
@@ -3806,9 +3800,9 @@
       </c>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="54"/>
+      <c r="U17" s="52"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="54"/>
+      <c r="W17" s="52"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -3818,10 +3812,10 @@
       <c r="C18" s="9"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
-      <c r="F18" s="55"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="38"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="60"/>
+      <c r="I18" s="58"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -3844,11 +3838,11 @@
       <c r="B19" s="37"/>
       <c r="C19" s="9"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="55"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="60"/>
+      <c r="I19" s="58"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -3860,13 +3854,13 @@
       <c r="R19" s="38"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="53" t="s">
+      <c r="U19" s="51" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="49"/>
+      <c r="W19" s="48"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -3879,7 +3873,7 @@
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="60"/>
+      <c r="I20" s="58"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -3911,7 +3905,7 @@
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="60"/>
+      <c r="I21" s="58"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -3943,7 +3937,7 @@
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="60"/>
+      <c r="I22" s="58"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -3975,7 +3969,7 @@
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="60"/>
+      <c r="I23" s="58"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -4002,7 +3996,7 @@
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="60"/>
+      <c r="I24" s="58"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -4029,7 +4023,7 @@
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="60"/>
+      <c r="I25" s="58"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -4041,13 +4035,13 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="53" t="s">
+      <c r="U25" s="51" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="49"/>
+      <c r="W25" s="48"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -4060,7 +4054,7 @@
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="60"/>
+      <c r="I26" s="58"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -4092,7 +4086,7 @@
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="60"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -4124,7 +4118,7 @@
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="60"/>
+      <c r="I28" s="58"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -4156,7 +4150,7 @@
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="60"/>
+      <c r="I29" s="58"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -4188,7 +4182,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="60"/>
+      <c r="I30" s="58"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -4220,7 +4214,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="60"/>
+      <c r="I31" s="58"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -4252,7 +4246,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="60"/>
+      <c r="I32" s="58"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -4284,7 +4278,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="60"/>
+      <c r="I33" s="58"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -4316,7 +4310,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="60"/>
+      <c r="I34" s="58"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -4348,7 +4342,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="60"/>
+      <c r="I35" s="58"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -4380,7 +4374,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="60"/>
+      <c r="I36" s="58"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -4412,7 +4406,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="60"/>
+      <c r="I37" s="58"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -4444,7 +4438,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="60"/>
+      <c r="I38" s="58"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -4471,7 +4465,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="60"/>
+      <c r="I39" s="58"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -4498,7 +4492,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="60"/>
+      <c r="I40" s="58"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -4530,7 +4524,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="60"/>
+      <c r="I41" s="58"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -4562,7 +4556,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="60"/>
+      <c r="I42" s="58"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -4589,7 +4583,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="60"/>
+      <c r="I43" s="58"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -4616,7 +4610,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="60"/>
+      <c r="I44" s="58"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -4652,7 +4646,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="60"/>
+      <c r="I45" s="58"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -4691,7 +4685,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="60"/>
+      <c r="I46" s="58"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -4730,7 +4724,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="60"/>
+      <c r="I47" s="58"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -4769,7 +4763,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="60"/>
+      <c r="I48" s="58"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -4811,7 +4805,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="60"/>
+      <c r="I49" s="58"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -4823,9 +4817,9 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4834,12 +4828,12 @@
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
-      <c r="D50" s="45"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="61"/>
+      <c r="I50" s="59"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -4848,12 +4842,12 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="45"/>
+      <c r="R50" s="44"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4867,7 +4861,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="60"/>
+      <c r="I51" s="58"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -4879,9 +4873,9 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4895,7 +4889,7 @@
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="62"/>
+      <c r="I52" s="60"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -4907,9 +4901,9 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4923,7 +4917,7 @@
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="62"/>
+      <c r="I53" s="60"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -4935,9 +4929,9 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4951,7 +4945,7 @@
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="62"/>
+      <c r="I54" s="60"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -4963,9 +4957,9 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4979,7 +4973,7 @@
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="62"/>
+      <c r="I55" s="60"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -4991,9 +4985,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="46"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5008,6 +5002,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5019,13 +5020,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5036,8 +5030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5069,43 +5063,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="47"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -5150,472 +5144,828 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="48"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="44" t="s">
+      <c r="A5" s="69"/>
+      <c r="B5" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="44" t="s">
+      <c r="J5" s="64"/>
+      <c r="K5" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="L5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="48"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="B6" s="37">
+        <v>44432</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44439</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="39">
+        <v>868345035633155</v>
+      </c>
+      <c r="F6" s="53"/>
+      <c r="G6" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="I6" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="66" t="s">
+      <c r="O6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="T6" s="42"/>
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="43"/>
+      <c r="W6" s="42"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="B7" s="37">
+        <v>44432</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44439</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="39">
+        <v>868345035601244</v>
+      </c>
+      <c r="F7" s="53"/>
+      <c r="G7" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="67"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="43"/>
+      <c r="W7" s="42"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="B8" s="37">
+        <v>44432</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44445</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="39">
+        <v>867717030466743</v>
+      </c>
+      <c r="F8" s="53"/>
+      <c r="G8" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="I8" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>92</v>
+      </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="67"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="43"/>
+      <c r="W8" s="42"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="B9" s="37">
+        <v>44432</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44445</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="39">
+        <v>868183033796678</v>
+      </c>
+      <c r="F9" s="53"/>
+      <c r="G9" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="67"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="43"/>
+      <c r="W9" s="42"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="B10" s="37">
+        <v>44432</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44445</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="39">
+        <v>868183033812335</v>
+      </c>
+      <c r="F10" s="53"/>
+      <c r="G10" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="67"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="43"/>
+      <c r="W10" s="42"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="50"/>
+      <c r="B11" s="37">
+        <v>44432</v>
+      </c>
+      <c r="C11" s="37">
+        <v>44445</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="39">
+        <v>868183035901813</v>
+      </c>
+      <c r="F11" s="53"/>
+      <c r="G11" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="49" t="s">
+        <v>86</v>
+      </c>
       <c r="J11" s="40"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="K11" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="67"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="43"/>
+      <c r="W11" s="42"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="B12" s="37">
+        <v>44432</v>
+      </c>
+      <c r="C12" s="37">
+        <v>44445</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="39">
+        <v>867857039922260</v>
+      </c>
+      <c r="F12" s="53"/>
+      <c r="G12" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="66" t="s">
+      <c r="T12" s="42"/>
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="43"/>
+      <c r="W12" s="42"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="40"/>
+      <c r="B13" s="37">
+        <v>44432</v>
+      </c>
+      <c r="C13" s="37">
+        <v>44445</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="39">
+        <v>868183034607437</v>
+      </c>
+      <c r="F13" s="53"/>
+      <c r="G13" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="58" t="s">
+        <v>104</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="10"/>
+      <c r="O13" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S13" s="4"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="67"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="43"/>
+      <c r="W13" s="42"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="37">
+        <v>44432</v>
+      </c>
+      <c r="C14" s="37">
+        <v>44445</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="39">
+        <v>868183034747118</v>
+      </c>
+      <c r="F14" s="53"/>
+      <c r="G14" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
+      <c r="I14" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>84</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="38"/>
+      <c r="O14" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>76</v>
+      </c>
       <c r="S14" s="4"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="67"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="43"/>
+      <c r="W14" s="42"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="40"/>
+      <c r="B15" s="37">
+        <v>44432</v>
+      </c>
+      <c r="C15" s="37">
+        <v>44445</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="39">
+        <v>868183035853220</v>
+      </c>
+      <c r="F15" s="53"/>
+      <c r="G15" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="K15" s="1"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="L15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="38"/>
+      <c r="O15" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="43"/>
+      <c r="W15" s="42"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="B16" s="37">
+        <v>44432</v>
+      </c>
+      <c r="C16" s="37">
+        <v>44445</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="39">
+        <v>868183033852356</v>
+      </c>
+      <c r="F16" s="53"/>
+      <c r="G16" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="49" t="s">
+        <v>99</v>
+      </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
+      <c r="K16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
+      <c r="O16" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="43"/>
+      <c r="W16" s="42"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
+      <c r="B17" s="37">
+        <v>44432</v>
+      </c>
+      <c r="C17" s="37">
+        <v>44445</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="39">
+        <v>868183037783318</v>
+      </c>
+      <c r="F17" s="53"/>
+      <c r="G17" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="40"/>
+      <c r="I17" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="40" t="s">
+        <v>96</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="38"/>
+      <c r="O17" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" s="38" t="s">
+        <v>97</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="43"/>
+      <c r="U17" s="42"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="43"/>
+      <c r="W17" s="42"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="10"/>
+      <c r="B18" s="37">
+        <v>44432</v>
+      </c>
+      <c r="C18" s="37">
+        <v>44445</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="39">
+        <v>860157040209527</v>
+      </c>
+      <c r="F18" s="53"/>
+      <c r="G18" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="M18" s="40" t="s">
+        <v>94</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="10"/>
+      <c r="O18" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="R18" s="38" t="s">
+        <v>92</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
@@ -5626,32 +5976,40 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="40"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="10"/>
+      <c r="O19" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="44" t="s">
+      <c r="U19" s="43" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="49"/>
+      <c r="W19" s="48"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -5681,7 +6039,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -5713,7 +6071,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -5745,7 +6103,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -5826,13 +6184,13 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="44" t="s">
+      <c r="U25" s="43" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="49"/>
+      <c r="W25" s="48"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -5958,7 +6316,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -6022,7 +6380,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -6054,7 +6412,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -6150,7 +6508,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -6182,7 +6540,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -6214,7 +6572,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6567,7 +6925,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>57</v>
@@ -6608,9 +6966,9 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6619,10 +6977,10 @@
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
-      <c r="D50" s="45"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
@@ -6633,12 +6991,12 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="45"/>
+      <c r="R50" s="44"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6664,9 +7022,9 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6692,9 +7050,9 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6720,9 +7078,9 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6748,9 +7106,9 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6776,9 +7134,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="46"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6793,6 +7151,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6804,13 +7169,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
